--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_198.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_198.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61)]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.14, 16.64)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1098837209302325</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.440395, 5.558652)]</t>
+          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:07.700000', '0:00:12.060000'), ('0:00:00.340000', '0:00:04.840000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:11.200000', '0:02:16.340000'), ('0:00:00.980000', '0:00:06.140000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1005681818181818</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min7/4', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(45.26, 57.58)]</t>
+          <t>[['G:min7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.22, 8.88)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:20.730000', '0:00:23.450000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3535714285714285</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(131.14, 133.9)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:39.580000', '0:00:46.780000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06593406593406594</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:min/C', 'C:7', 'F:min'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09784946236559139</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['F:min', 'C:7', 'F:min'], ['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.06, 72.5), (43.68, 45.8), (17.34, 24.4)]</t>
+          <t>[['D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(63.858, 80.628), (17.833, 21.409), (0.243, 9.12)]</t>
+          <t>[('0:00:03.802834', '0:00:06.531178')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:37.738798', '0:00:43.706326')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1046910755148741</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Ab/7', 'F:min', 'Db:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(57.388, 62.385)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.279353, 8.853684)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08084239130434782</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6000000000000001</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(25.18, 48.16)]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1357370095440085</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/5', 'E/4', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'E/7']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.544, 9.34)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.935986, 13.148866)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2371794871794872</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.899614, 20.672131)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09685230024213075</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(25.0, 35.52)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(95.26, 113.64)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3375</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.64, 9.94)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.48, 25.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.82, 6.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
